--- a/Measurements/TrialMeasurements.xlsx
+++ b/Measurements/TrialMeasurements.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Data TIWSNE - Measurements</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Shunt Resistor [Ohm]</t>
   </si>
   <si>
-    <t>Receiver</t>
-  </si>
-  <si>
     <t>Current [mA]</t>
   </si>
   <si>
@@ -66,6 +63,24 @@
   </si>
   <si>
     <t>Sender sending (compression)</t>
+  </si>
+  <si>
+    <t>Receiver Idle</t>
+  </si>
+  <si>
+    <t>Receiver Receiving</t>
+  </si>
+  <si>
+    <t>Sender (Radio turned on)</t>
+  </si>
+  <si>
+    <t>Sender (Flash Load)</t>
+  </si>
+  <si>
+    <t>Receiver Circuit</t>
+  </si>
+  <si>
+    <t>Fra idle til receiver circuit</t>
   </si>
 </sst>
 </file>
@@ -380,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H14"/>
+  <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -400,24 +415,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <f>B4/C4</f>
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f>(E4-(B4*0.001))*(B4*0.001)</f>
+        <v>5.96E-2</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -425,159 +468,215 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>177</v>
+        <v>181.25</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5">
         <f>B5/C5</f>
-        <v>17.7</v>
+        <v>18.125</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
         <f>(E5-(B5*0.001))*(B5*0.001)</f>
-        <v>0.49967099999999998</v>
+        <v>0.51089843749999997</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>90</v>
+        <v>176.25</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <f>B6/C6</f>
-        <v>9</v>
+        <f t="shared" ref="D6:D14" si="0">B6/C6</f>
+        <v>17.625</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F14" si="0">(E6-(B6*0.001))*(B6*0.001)</f>
-        <v>0.26190000000000002</v>
+        <f>(E6-(B6*0.001))*(B6*0.001)</f>
+        <v>0.49768593749999995</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ref="H6:H14" si="1">F7*G7</f>
-        <v>0</v>
+        <f>(E7-(B7*0.001))*(B7*0.001)</f>
+        <v>5.96E-2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>189</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>18.899999999999999</v>
+      </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8">
+        <f>(E8-(B8*0.001))*(B8*0.001)</f>
+        <v>0.53127899999999995</v>
+      </c>
+      <c r="H8">
+        <f>F8*G8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>220</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <f>(E9-(B9*0.001))*(B9*0.001)</f>
+        <v>0.61159999999999992</v>
+      </c>
+      <c r="H9">
+        <f>F9*G9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>189</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F6:F14" si="1">(E10-(B10*0.001))*(B10*0.001)</f>
+        <v>0.53127899999999995</v>
+      </c>
+      <c r="G10">
+        <v>43</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H7:H14" si="2">F10*G10</f>
+        <v>22.844996999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>191</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.53651900000000008</v>
+      </c>
+      <c r="G11">
+        <v>24.5</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>13.144715500000002</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>10</v>
       </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -585,15 +684,19 @@
       <c r="C13">
         <v>10</v>
       </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E13">
         <v>3</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -601,16 +704,30 @@
       <c r="C14">
         <v>10</v>
       </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>142.5</v>
       </c>
     </row>
   </sheetData>

--- a/Measurements/TrialMeasurements.xlsx
+++ b/Measurements/TrialMeasurements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -32,21 +32,6 @@
     <t>Data TIWSNE - Measurements</t>
   </si>
   <si>
-    <t>Voltage [mV]</t>
-  </si>
-  <si>
-    <t>Shunt Resistor [Ohm]</t>
-  </si>
-  <si>
-    <t>Current [mA]</t>
-  </si>
-  <si>
-    <t>Power [W]</t>
-  </si>
-  <si>
-    <t>Battery Voltage [V]</t>
-  </si>
-  <si>
     <t>Time [s]</t>
   </si>
   <si>
@@ -81,6 +66,21 @@
   </si>
   <si>
     <t>Fra idle til receiver circuit</t>
+  </si>
+  <si>
+    <t>Ushunt [mV]</t>
+  </si>
+  <si>
+    <t>Rshunt [Ohm]</t>
+  </si>
+  <si>
+    <t>Imote[mA]</t>
+  </si>
+  <si>
+    <t>Ubattery [V]</t>
+  </si>
+  <si>
+    <t>Pmote [W]</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -417,30 +417,30 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -456,19 +456,19 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <f>(E4-(B4*0.001))*(B4*0.001)</f>
-        <v>5.96E-2</v>
+        <f>(E4-(B4*0.001))*(B4*0.001)/10</f>
+        <v>5.96E-3</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>181.25</v>
@@ -484,19 +484,19 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <f>(E5-(B5*0.001))*(B5*0.001)</f>
-        <v>0.51089843749999997</v>
+        <f t="shared" ref="F5:F11" si="0">(E5-(B5*0.001))*(B5*0.001)/10</f>
+        <v>5.1089843749999996E-2</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>176.25</v>
@@ -505,26 +505,26 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D14" si="0">B6/C6</f>
+        <f t="shared" ref="D6:D14" si="1">B6/C6</f>
         <v>17.625</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6">
-        <f>(E6-(B6*0.001))*(B6*0.001)</f>
-        <v>0.49768593749999995</v>
+        <f t="shared" si="0"/>
+        <v>4.9768593749999993E-2</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -533,43 +533,43 @@
         <v>10</v>
       </c>
       <c r="D7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <f>(E7-(B7*0.001))*(B7*0.001)</f>
-        <v>5.96E-2</v>
+        <v>5.96E-3</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>189</v>
+        <v>188.75</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8">
+        <f t="shared" si="1"/>
+        <v>18.875</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <f>(E8-(B8*0.001))*(B8*0.001)</f>
-        <v>0.53127899999999995</v>
+        <v>5.3062343749999998E-2</v>
       </c>
       <c r="H8">
         <f>F8*G8</f>
@@ -578,7 +578,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>220</v>
@@ -587,15 +587,15 @@
         <v>10</v>
       </c>
       <c r="D9">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <f>(E9-(B9*0.001))*(B9*0.001)</f>
-        <v>0.61159999999999992</v>
+        <v>6.1159999999999992E-2</v>
       </c>
       <c r="H9">
         <f>F9*G9</f>
@@ -604,36 +604,36 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>189</v>
+        <v>188.75</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>18.899999999999999</v>
+        <f t="shared" si="1"/>
+        <v>18.875</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F6:F14" si="1">(E10-(B10*0.001))*(B10*0.001)</f>
-        <v>0.53127899999999995</v>
+        <f>(E10-(B10*0.001))*(B10*0.001)/10</f>
+        <v>5.3062343749999998E-2</v>
       </c>
       <c r="G10">
         <v>43</v>
       </c>
       <c r="H10">
-        <f t="shared" ref="H7:H14" si="2">F10*G10</f>
-        <v>22.844996999999999</v>
+        <f>F10*G10</f>
+        <v>2.28168078125</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>191</v>
@@ -642,22 +642,22 @@
         <v>10</v>
       </c>
       <c r="D11">
+        <f t="shared" si="1"/>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
-        <v>19.100000000000001</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>0.53651900000000008</v>
+        <v>5.3651900000000009E-2</v>
       </c>
       <c r="G11">
         <v>24.5</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
-        <v>13.144715500000002</v>
+        <f t="shared" ref="H11:H14" si="2">F11*G11</f>
+        <v>1.3144715500000002</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -665,14 +665,14 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F12:F14" si="3">(E12-(B12*0.001))*(B12*0.001)</f>
         <v>0</v>
       </c>
       <c r="H12">
@@ -685,14 +685,14 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13">
@@ -705,14 +705,14 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H14">
@@ -722,7 +722,7 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
